--- a/SupplementaryTables/SupplementaryTable9.xlsx
+++ b/SupplementaryTables/SupplementaryTable9.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>Cell_class</t>
   </si>
@@ -79,27 +79,27 @@
     <t>Gad2/Ahi1-8</t>
   </si>
   <si>
+    <t>Gad2/Ahi1-5</t>
+  </si>
+  <si>
     <t>Gad2/Ahi1-6</t>
   </si>
   <si>
-    <t>Gad2/Ahi1-5</t>
-  </si>
-  <si>
     <t>Gad2/Ahi1-7</t>
   </si>
   <si>
+    <t>Gad2/Ahi1-9</t>
+  </si>
+  <si>
     <t>Habenula-1</t>
   </si>
   <si>
+    <t>Gad2/Ahi1-2</t>
+  </si>
+  <si>
     <t>Gad2/Ahi1-3</t>
   </si>
   <si>
-    <t>Gad2/Ahi1-9</t>
-  </si>
-  <si>
-    <t>Gad2/Ahi1-2</t>
-  </si>
-  <si>
     <t>Habenula-3</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>Gad2/Ahi1-4</t>
   </si>
   <si>
+    <t>Gad2/Ahi1-1</t>
+  </si>
+  <si>
     <t>Rora-9</t>
   </si>
   <si>
@@ -148,9 +151,6 @@
     <t>Rora-6</t>
   </si>
   <si>
-    <t>Gad2/Ahi1-1</t>
-  </si>
-  <si>
     <t>Habenula-2</t>
   </si>
   <si>
@@ -160,33 +160,33 @@
     <t>Cbln2</t>
   </si>
   <si>
+    <t>Nrsn1</t>
+  </si>
+  <si>
     <t>Dner</t>
   </si>
   <si>
     <t>Anterior_Rora</t>
   </si>
   <si>
+    <t>C1qtnf4</t>
+  </si>
+  <si>
+    <t>Chga</t>
+  </si>
+  <si>
+    <t>Syngr3</t>
+  </si>
+  <si>
+    <t>Kif5c</t>
+  </si>
+  <si>
     <t>D630045J12Rik</t>
   </si>
   <si>
-    <t>Chga</t>
-  </si>
-  <si>
-    <t>Syngr3</t>
-  </si>
-  <si>
-    <t>Chn1</t>
-  </si>
-  <si>
-    <t>C1qtnf4</t>
-  </si>
-  <si>
     <t>Chrna4</t>
   </si>
   <si>
-    <t>Kif5c</t>
-  </si>
-  <si>
     <t>Ywhah</t>
   </si>
   <si>
@@ -196,52 +196,52 @@
     <t>Posterior_Habenula_Tac2</t>
   </si>
   <si>
+    <t>Car10</t>
+  </si>
+  <si>
+    <t>Gpm6a</t>
+  </si>
+  <si>
+    <t>Neurod2</t>
+  </si>
+  <si>
     <t>Nol4</t>
   </si>
   <si>
-    <t>Car10</t>
-  </si>
-  <si>
-    <t>Gpm6a</t>
-  </si>
-  <si>
-    <t>Neurod2</t>
-  </si>
-  <si>
     <t>Hap1</t>
   </si>
   <si>
     <t>Posterior_Rora</t>
   </si>
   <si>
+    <t>Dclk2</t>
+  </si>
+  <si>
     <t>St6gal2</t>
   </si>
   <si>
-    <t>Dclk2</t>
+    <t>Nell1</t>
+  </si>
+  <si>
+    <t>Svop</t>
+  </si>
+  <si>
+    <t>L1cam</t>
+  </si>
+  <si>
+    <t>Lrfn5</t>
   </si>
   <si>
     <t>Sez6</t>
   </si>
   <si>
-    <t>Lrfn5</t>
-  </si>
-  <si>
-    <t>Celsr2</t>
-  </si>
-  <si>
-    <t>L1cam</t>
-  </si>
-  <si>
-    <t>Svop</t>
-  </si>
-  <si>
-    <t>Nell1</t>
-  </si>
-  <si>
     <t>Posterior_Gad2-Ahi1</t>
   </si>
   <si>
     <t>Rab27b</t>
+  </si>
+  <si>
+    <t>Pcdh19</t>
   </si>
 </sst>
 </file>
@@ -306,9 +306,9 @@
   <cols>
     <col min="1" max="1" width="21" customWidth="true"/>
     <col min="2" max="2" width="19.85546875" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.140625" customWidth="true"/>
     <col min="4" max="4" width="20.5703125" customWidth="true"/>
-    <col min="5" max="5" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -333,16 +333,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5353823685608075</v>
+        <v>2.4539514023930904</v>
       </c>
       <c r="C2">
-        <v>0.013502950391120955</v>
+        <v>0.026352068715589958</v>
       </c>
       <c r="D2">
-        <v>3.8020895522388058</v>
+        <v>3.5611369990680335</v>
       </c>
       <c r="E2">
-        <v>3.7272551712860874e-05</v>
+        <v>0.00018907228507810821</v>
       </c>
     </row>
     <row r="3">
@@ -350,10 +350,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.1443050193050199</v>
+        <v>5.0204449450858917</v>
       </c>
       <c r="C3">
-        <v>0.00014183214341123828</v>
+        <v>0.004433656180474612</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -401,16 +401,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.89152661064425776</v>
+        <v>0.94221235664076952</v>
       </c>
       <c r="C6">
-        <v>1.3245894783054946</v>
+        <v>1.1384214525207235</v>
       </c>
       <c r="D6">
         <v>0.99898039215686274</v>
       </c>
       <c r="E6">
-        <v>1.5444005696706566</v>
+        <v>1.3513504984618245</v>
       </c>
     </row>
     <row r="7">
@@ -435,10 +435,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0333603896103896</v>
+        <v>1.0921097770154373</v>
       </c>
       <c r="C8">
-        <v>1.4042348330689673</v>
+        <v>1.2076641939055082</v>
       </c>
       <c r="D8">
         <v>2.326392694063927</v>
@@ -452,10 +452,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.4100892857142853</v>
+        <v>3.6039622641509435</v>
       </c>
       <c r="C9">
-        <v>0.030229524931678825</v>
+        <v>0.023137339199992207</v>
       </c>
       <c r="D9">
         <v>3.8210999999999995</v>
@@ -469,16 +469,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.7286515567765568</v>
+        <v>0.7700774068698597</v>
       </c>
       <c r="C10">
-        <v>1.2552926889498153</v>
+        <v>1.2108023052969186</v>
       </c>
       <c r="D10">
-        <v>0.81647435897435905</v>
+        <v>1.2266773675762439</v>
       </c>
       <c r="E10">
-        <v>1.27814454806938</v>
+        <v>1.1464338447777489</v>
       </c>
     </row>
   </sheetData>
@@ -519,16 +519,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.98843167701863355</v>
+        <v>1.0446267432321574</v>
       </c>
       <c r="C2">
-        <v>0.64052983234872596</v>
+        <v>0.62023355616435327</v>
       </c>
       <c r="D2">
-        <v>3.3518421052631577</v>
+        <v>4.4888105726872247</v>
       </c>
       <c r="E2">
-        <v>0.092063186529102239</v>
+        <v>0.01872609798436559</v>
       </c>
     </row>
     <row r="3">
@@ -536,16 +536,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>2.7390275387263334</v>
+        <v>2.8947488065469424</v>
       </c>
       <c r="C3">
-        <v>0.016980155018403817</v>
+        <v>0.012156017314845469</v>
       </c>
       <c r="D3">
-        <v>3.4580090497737555</v>
+        <v>3.0691566265060244</v>
       </c>
       <c r="E3">
-        <v>0.0062672795011558449</v>
+        <v>0.025353846772795893</v>
       </c>
     </row>
     <row r="4">
@@ -553,10 +553,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1.5571183953033267</v>
+        <v>2.4769500097257344</v>
       </c>
       <c r="C4">
-        <v>0.44418365423739409</v>
+        <v>0.14661718032964877</v>
       </c>
       <c r="D4">
         <v>4.4072664359861591</v>
@@ -603,16 +603,16 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>-2.7941176470588234</v>
+        <v>-2.9544950055493895</v>
       </c>
       <c r="C2">
-        <v>1.4406222248486067</v>
+        <v>0.99037521626110625</v>
       </c>
       <c r="D2">
-        <v>6.5240816326530613</v>
+        <v>8.3250000000000011</v>
       </c>
       <c r="E2">
-        <v>0.20134294785378401</v>
+        <v>0.022438814323107469</v>
       </c>
     </row>
     <row r="3">
@@ -623,13 +623,13 @@
         <v>-0</v>
       </c>
       <c r="C3">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D3">
-        <v>3.552</v>
+        <v>4.7951999999999995</v>
       </c>
       <c r="E3">
-        <v>1.4812621627124525</v>
+        <v>0.70163710375363231</v>
       </c>
     </row>
     <row r="4">
@@ -637,16 +637,16 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>-1.3701923076923077</v>
+        <v>-0</v>
       </c>
       <c r="C4">
-        <v>1.7616401437679705</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D4">
-        <v>4.7951999999999995</v>
+        <v>3.552</v>
       </c>
       <c r="E4">
-        <v>0.70163710375363231</v>
+        <v>0.98750810847496828</v>
       </c>
     </row>
     <row r="5">
@@ -657,13 +657,13 @@
         <v>-0</v>
       </c>
       <c r="C5">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D5">
-        <v>2.3165217391304349</v>
+        <v>3.525882352941176</v>
       </c>
       <c r="E5">
-        <v>1.6233487246810345</v>
+        <v>0.73408012095363673</v>
       </c>
     </row>
     <row r="6">
@@ -671,16 +671,16 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>-2.283018867924528</v>
       </c>
       <c r="C6">
-        <v>1.4412112710259199</v>
+        <v>2.0943363619203894</v>
       </c>
       <c r="D6">
-        <v>1.776</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="E6">
-        <v>2.2746062635385202</v>
+        <v>0.67958995599980543</v>
       </c>
     </row>
     <row r="7">
@@ -688,16 +688,16 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>-1.3701923076923077</v>
+        <v>-0</v>
       </c>
       <c r="C7">
-        <v>1.7616401437679705</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D7">
-        <v>3.1341176470588237</v>
+        <v>1.776</v>
       </c>
       <c r="E7">
-        <v>1.4431109078303097</v>
+        <v>2.2746062635385202</v>
       </c>
     </row>
     <row r="8">
@@ -705,16 +705,16 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>-2.1590909090909092</v>
+        <v>-0</v>
       </c>
       <c r="C8">
-        <v>2.1876530405258023</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D8">
-        <v>2.4218181818181819</v>
+        <v>1.7004255319148935</v>
       </c>
       <c r="E8">
-        <v>2.2485006837689712</v>
+        <v>2.133902767275766</v>
       </c>
     </row>
     <row r="9">
@@ -722,16 +722,16 @@
         <v>26</v>
       </c>
       <c r="B9">
-        <v>-1.5159574468085106</v>
+        <v>-1.4488388969521044</v>
       </c>
       <c r="C9">
-        <v>1.959183501104526</v>
+        <v>2.0204279181497085</v>
       </c>
       <c r="D9">
-        <v>1.7004255319148935</v>
+        <v>3.1341176470588237</v>
       </c>
       <c r="E9">
-        <v>2.133902767275766</v>
+        <v>1.0307935055930784</v>
       </c>
     </row>
     <row r="10">
@@ -739,16 +739,16 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>-1.1491935483870968</v>
+        <v>-1.2151552038953133</v>
       </c>
       <c r="C10">
-        <v>1.6964947624326081</v>
+        <v>1.9658536544334058</v>
       </c>
       <c r="D10">
         <v>1.2890322580645162</v>
       </c>
       <c r="E10">
-        <v>1.6698986784814835</v>
+        <v>2.0277341095846588</v>
       </c>
     </row>
     <row r="11">
@@ -759,13 +759,13 @@
         <v>-0</v>
       </c>
       <c r="C11">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="12">
@@ -776,13 +776,13 @@
         <v>-0</v>
       </c>
       <c r="C12">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="13">
@@ -793,13 +793,13 @@
         <v>-0</v>
       </c>
       <c r="C13">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="14">
@@ -810,13 +810,13 @@
         <v>-0</v>
       </c>
       <c r="C14">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="15">
@@ -827,13 +827,13 @@
         <v>-0</v>
       </c>
       <c r="C15">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>-0</v>
       </c>
       <c r="C16">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="17">
@@ -861,13 +861,13 @@
         <v>-0</v>
       </c>
       <c r="C17">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="18">
@@ -878,13 +878,13 @@
         <v>-0</v>
       </c>
       <c r="C18">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="19">
@@ -895,13 +895,13 @@
         <v>-0</v>
       </c>
       <c r="C19">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +909,16 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>-0.39583333333333331</v>
+        <v>-0</v>
       </c>
       <c r="C20">
-        <v>2.089716848380601</v>
+        <v>1.5279944770248717</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="21">
@@ -926,16 +926,16 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>-0.39804469273743015</v>
+        <v>-0.41855345911949687</v>
       </c>
       <c r="C21">
-        <v>2.1820740005257311</v>
+        <v>2.3737771903617575</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="22">
@@ -943,16 +943,16 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>-0.45382165605095537</v>
+        <v>-0.42089174660061135</v>
       </c>
       <c r="C22">
-        <v>2.2142369030811802</v>
+        <v>2.4954028787747009</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="23">
@@ -960,16 +960,16 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>-0.64189189189189177</v>
+        <v>-0.47987020790770335</v>
       </c>
       <c r="C23">
-        <v>2.0660533816440738</v>
+        <v>2.5439148678972465</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="24">
@@ -977,16 +977,16 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>-0.65366972477064222</v>
+        <v>-0.67873533911269757</v>
       </c>
       <c r="C24">
-        <v>2.1584497338293236</v>
+        <v>2.3746672186984004</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="25">
@@ -994,16 +994,16 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>-1.1776859504132231</v>
+        <v>-0.69118919854595806</v>
       </c>
       <c r="C25">
-        <v>1.9030113796556634</v>
+        <v>2.5031021989189384</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="26">
@@ -1011,16 +1011,16 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>-1.5833333333333333</v>
+        <v>-1.2452830188679245</v>
       </c>
       <c r="C26">
-        <v>2.0592112525877266</v>
+        <v>2.0928873301650954</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
     <row r="27">
@@ -1028,16 +1028,16 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>-3.6853448275862064</v>
+        <v>-3.8968770331815228</v>
       </c>
       <c r="C27">
-        <v>0.89116984584985592</v>
+        <v>0.77720232617878171</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.4412112710259199</v>
+        <v>1.5279944770248717</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="true"/>
@@ -1062,7 +1062,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>57</v>
@@ -1074,7 +1074,7 @@
         <v>64</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1082,7 +1082,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>46</v>
@@ -1094,7 +1094,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1111,10 +1111,13 @@
         <v>66</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>74</v>
@@ -1136,7 +1139,10 @@
         <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1174,11 +1180,6 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>